--- a/Documentatie/Risicolog MicroTransAt.xlsx
+++ b/Documentatie/Risicolog MicroTransAt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOEKOEK\Documents\RAAST\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A882F72-3A18-4E52-BC59-22B508AC2509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562E3CE8-F3B2-418C-8946-DA5F5EF80A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5340" windowWidth="21600" windowHeight="8850" xr2:uid="{B413D8BC-6A30-4065-97E0-A663EA1033B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B413D8BC-6A30-4065-97E0-A663EA1033B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Onderwerp</t>
   </si>
@@ -105,18 +105,6 @@
     <t xml:space="preserve">Ja </t>
   </si>
   <si>
-    <t>Boot Zinkt</t>
-  </si>
-  <si>
-    <t>Boot onzinkbaar maken</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Nee</t>
-  </si>
-  <si>
     <t>Tijdsnood</t>
   </si>
   <si>
@@ -141,7 +129,16 @@
     <t>Algeheel process</t>
   </si>
   <si>
-    <t>Eindproduct oplevering</t>
+    <t>1 risico kan meerdere maatregelen hebben.</t>
+  </si>
+  <si>
+    <t>beschrijving kleuren definieren</t>
+  </si>
+  <si>
+    <t>oranje &gt; oranje? Eigenlijk tijdverspilling</t>
+  </si>
+  <si>
+    <t>Teamlid wordt ziek</t>
   </si>
 </sst>
 </file>
@@ -637,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA49579B-CBD8-43EE-ACBD-2E2CC568EECF}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +692,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>19</v>
@@ -764,46 +761,24 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10">
         <v>5</v>
@@ -815,10 +790,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="10">
         <v>4</v>
@@ -835,10 +810,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10">
         <v>5</v>
@@ -850,10 +825,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" s="10">
         <v>5</v>
@@ -870,7 +845,9 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -911,6 +888,21 @@
       </c>
       <c r="F13" s="4"/>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -918,15 +910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9044bc7c-5561-4db9-9d96-609169053c8c">
@@ -935,6 +918,15 @@
     <TaxCatchAll xmlns="8e5f2645-bccb-4dec-bc86-041dda1b51ee" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,20 +1159,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A96F5E-4624-4F1D-AAC2-03F5550DDAAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562E8B04-D06D-4EBF-89A0-73C9DA8D492F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="9044bc7c-5561-4db9-9d96-609169053c8c"/>
     <ds:schemaRef ds:uri="8e5f2645-bccb-4dec-bc86-041dda1b51ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A96F5E-4624-4F1D-AAC2-03F5550DDAAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
